--- a/excel-python-copilot-pivottables-demo.xlsx
+++ b/excel-python-copilot-pivottables-demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CA6736-FCF8-495F-8E4D-31AA66CCFF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DE9800-BFEA-4C27-B13B-3BBA9D3AEC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}" name="Table1" displayName="Table1" ref="A1:G345" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}" name="penguins" displayName="penguins" ref="A1:G345" totalsRowShown="0">
   <autoFilter ref="A1:G345" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AB47DF9F-ED44-46A8-8E6E-EC5FD774AE15}" name="species"/>
@@ -960,7 +960,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C4" sqref="A2:G345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
